--- a/Bills/Dinesh_Maheshwari_Jobuss.xlsx
+++ b/Bills/Dinesh_Maheshwari_Jobuss.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,7 +529,6 @@
     <col width="18" customWidth="1" min="22" max="22"/>
     <col width="18" customWidth="1" min="23" max="23"/>
     <col width="18" customWidth="1" min="24" max="24"/>
-    <col width="18" customWidth="1" min="25" max="25"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -540,122 +539,117 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Working At</t>
+          <t>Employee Code</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Employee Code</t>
+          <t>Employee Name</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Employee Name</t>
+          <t>Billing</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Billing</t>
+          <t>No of days</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>No of days</t>
+          <t>Eligible Days</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Eligible Days</t>
+          <t>No of Saturdays</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>No of Saturdays</t>
+          <t>No of Sundays</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>No of Sundays</t>
+          <t>No of Holidays</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>No of Holidays</t>
+          <t>Total Present</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Total Present</t>
+          <t>Total Working Days</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Total Working Days</t>
+          <t>Absents this Month</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Absents this Month</t>
+          <t>Adjustment of Days</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Adjustment of Days</t>
+          <t>Total Payable Days</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Total Payable Days</t>
+          <t>Total Payable Billing</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Total Payable Billing</t>
+          <t>Charges</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Charges</t>
+          <t>Out of Pocket Exp</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Out of Pocket Exp</t>
+          <t>Arrears</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Arrears</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Grand Total</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
+          <t>Remark</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>CGST @9%</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>SGST @9%</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>IGST @18%</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Grand Total</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Remark</t>
         </is>
       </c>
     </row>
@@ -667,80 +661,75 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>OPC Assets Solutions</t>
+          <t>JB-10193</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>JB-10193</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
           <t>VIDHYASHREE NARAYANASWAMY</t>
         </is>
       </c>
+      <c r="D2" s="2" t="n">
+        <v>28600</v>
+      </c>
       <c r="E2" s="2" t="n">
-        <v>28600</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>28</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>4</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>28</v>
+        <v>28600</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>28600</v>
+        <v>750</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="R2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>0</v>
+        <v>29350</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>29350</v>
+        <v>34633</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>2641.5</v>
+        <v/>
       </c>
       <c r="V2" s="2" t="n">
         <v>2641.5</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0</v>
+        <v>2641.5</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>34633</v>
-      </c>
-      <c r="Y2" s="2" t="n">
         <v/>
       </c>
     </row>
@@ -752,80 +741,75 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>OPC Assets Solutions</t>
+          <t>JB-10190</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>JB-10190</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
           <t>JAYSHREE SUNIL KASBE</t>
         </is>
       </c>
+      <c r="D3" s="2" t="n">
+        <v>33600</v>
+      </c>
       <c r="E3" s="2" t="n">
-        <v>33600</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>28</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>4</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>28</v>
+        <v>33600</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>33600</v>
+        <v>1500</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="R3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>0</v>
+        <v>35100</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>35100</v>
+        <v>41418</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>3159</v>
+        <v/>
       </c>
       <c r="V3" s="2" t="n">
         <v>3159</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0</v>
+        <v>3159</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>41418</v>
-      </c>
-      <c r="Y3" s="2" t="n">
         <v/>
       </c>
     </row>
@@ -837,80 +821,75 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>OPC Assets Solutions</t>
+          <t>JB-10191</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>JB-10191</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
           <t>UPADHYAY SHIVANGI MUKESHKUMAR</t>
         </is>
       </c>
+      <c r="D4" s="2" t="n">
+        <v>33600</v>
+      </c>
       <c r="E4" s="2" t="n">
-        <v>33600</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>28</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>4</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>28</v>
+        <v>33600</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>33600</v>
+        <v>1500</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>0</v>
+        <v>35100</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>35100</v>
+        <v>41418</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>3159</v>
+        <v/>
       </c>
       <c r="V4" s="2" t="n">
         <v>3159</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0</v>
+        <v>3159</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>41418</v>
-      </c>
-      <c r="Y4" s="2" t="n">
         <v/>
       </c>
     </row>
@@ -922,80 +901,75 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>OPC Assets Solutions</t>
+          <t>JB-10211</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>JB-10211</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
           <t>CYRIL ANDREW MASCARENHAS</t>
         </is>
       </c>
+      <c r="D5" s="2" t="n">
+        <v>30000</v>
+      </c>
       <c r="E5" s="2" t="n">
-        <v>30000</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>28</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>28</v>
+        <v>30000</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>30000</v>
+        <v>750</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="R5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>0</v>
+        <v>30750</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>30750</v>
+        <v>36285</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>2767.5</v>
+        <v/>
       </c>
       <c r="V5" s="2" t="n">
         <v>2767.5</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0</v>
+        <v>2767.5</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>36285</v>
-      </c>
-      <c r="Y5" s="2" t="n">
         <v/>
       </c>
     </row>
@@ -1007,80 +981,75 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>OPC Assets Solutions</t>
+          <t>JB-10229</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>JB-10229</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
           <t>SACHIN RAJAN GUPTA</t>
         </is>
       </c>
+      <c r="D6" s="2" t="n">
+        <v>37500</v>
+      </c>
       <c r="E6" s="2" t="n">
-        <v>37500</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>28</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>28</v>
+        <v>37500</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>37500</v>
+        <v>750</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>0</v>
+        <v>38250</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>38250</v>
+        <v>45135</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>3442.5</v>
+        <v/>
       </c>
       <c r="V6" s="2" t="n">
         <v>3442.5</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0</v>
+        <v>3442.5</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>45135</v>
-      </c>
-      <c r="Y6" s="2" t="n">
         <v/>
       </c>
     </row>
@@ -1092,7 +1061,10 @@
       </c>
       <c r="B7" s="3" t="n"/>
       <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
+      <c r="D7" s="3">
+        <f>ROUND(SUM(D2:D6), 0)</f>
+        <v/>
+      </c>
       <c r="E7" s="3">
         <f>ROUND(SUM(E2:E6), 0)</f>
         <v/>
@@ -1154,26 +1126,22 @@
         <v/>
       </c>
       <c r="T7" s="3">
-        <f>ROUND(SUM(T2:T6), 0)</f>
-        <v/>
-      </c>
-      <c r="U7" s="3">
-        <f>CEILING(SUM(U2:U6), 1)</f>
-        <v/>
-      </c>
+        <f>ROUND(SUM(S7), 0)</f>
+        <v/>
+      </c>
+      <c r="U7" s="3" t="n"/>
       <c r="V7" s="3">
         <f>CEILING(SUM(V2:V6), 1)</f>
         <v/>
       </c>
       <c r="W7" s="3">
-        <f>ROUND(SUM(W2:W6), 0)</f>
+        <f>CEILING(SUM(W2:W6), 1)</f>
         <v/>
       </c>
       <c r="X7" s="3">
-        <f>ROUND(SUM(T7,U7,V7,W7), 0)</f>
-        <v/>
-      </c>
-      <c r="Y7" s="3" t="n"/>
+        <f>ROUND(SUM(X2:X6), 0)</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Bills/Dinesh_Maheshwari_Jobuss.xlsx
+++ b/Bills/Dinesh_Maheshwari_Jobuss.xlsx
@@ -2,22 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Annexure" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Mr. Dinesh Maheshwari Bill" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Annexure" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="14">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,16 +28,110 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="MS Reference Sans Serif"/>
+      <family val="2"/>
+      <color rgb="FF000080"/>
+      <sz val="26"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000080"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="MS Reference Sans Serif"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF002060"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF222222"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="10"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -50,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -59,29 +155,567 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma 2" xfId="1"/>
+    <cellStyle name="Comma 3" xfId="2"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -155,6 +789,99 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>4</col>
+      <colOff>254000</colOff>
+      <row>44</row>
+      <rowOff>0</rowOff>
+    </from>
+    <to>
+      <col>5</col>
+      <colOff>341630</colOff>
+      <row>51</row>
+      <rowOff>19050</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Picture 2"/>
+        <cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3632200" y="9264650"/>
+          <a:ext cx="1339850" cy="1320800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>6</col>
+      <colOff>492125</colOff>
+      <row>46</row>
+      <rowOff>12700</rowOff>
+    </from>
+    <to>
+      <col>7</col>
+      <colOff>556895</colOff>
+      <row>50</row>
+      <rowOff>44450</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Picture 3"/>
+        <cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6080125" y="9658350"/>
+          <a:ext cx="1676400" cy="768350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>4</col>
@@ -219,44 +946,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -283,14 +1010,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -317,6 +1062,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -328,170 +1091,777 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:L62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <cols>
+    <col width="9.54296875" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="18.90625" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="17.90625" customWidth="1" min="5" max="5"/>
+    <col width="13.90625" customWidth="1" min="6" max="6"/>
+    <col width="23.08984375" customWidth="1" min="7" max="7"/>
+    <col width="19.90625" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1" thickBot="1"/>
+    <row r="2" ht="89.25" customHeight="1" thickBot="1">
+      <c r="A2" s="38" t="inlineStr">
+        <is>
+          <t>Jobuss Resources Pvt Ltd.</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="7" t="n"/>
+      <c r="D2" s="7" t="n"/>
+      <c r="E2" s="7" t="n"/>
+      <c r="F2" s="41" t="n"/>
+      <c r="G2" s="7" t="n"/>
+      <c r="H2" s="8" t="n"/>
+    </row>
+    <row r="3" ht="17.4" customHeight="1" thickBot="1">
+      <c r="A3" s="85" t="inlineStr">
+        <is>
+          <t>Private Limited</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="n"/>
+      <c r="C3" s="7" t="n"/>
+      <c r="D3" s="7" t="n"/>
+      <c r="E3" s="7" t="n"/>
+      <c r="F3" s="7" t="n"/>
+      <c r="G3" s="7" t="n"/>
+      <c r="H3" s="8" t="n"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" thickBot="1">
+      <c r="A4" s="86" t="inlineStr">
+        <is>
+          <t>Add:-1106, Sureshwari Techno IT Park, Eskay Resort, Borivali West Mumbai- 400092</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="n"/>
+      <c r="C4" s="7" t="n"/>
+      <c r="D4" s="7" t="n"/>
+      <c r="E4" s="7" t="n"/>
+      <c r="F4" s="7" t="n"/>
+      <c r="G4" s="7" t="n"/>
+      <c r="H4" s="8" t="n"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" thickBot="1">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="3" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="87" t="n"/>
+      <c r="B6" s="7" t="n"/>
+      <c r="C6" s="7" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="7" t="n"/>
+      <c r="F6" s="7" t="n"/>
+      <c r="G6" s="7" t="n"/>
+      <c r="H6" s="8" t="n"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" thickTop="1">
+      <c r="A7" s="88" t="inlineStr">
+        <is>
+          <t>OPC ASSET SOLUTIONS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B7" s="89" t="n"/>
+      <c r="C7" s="89" t="n"/>
+      <c r="D7" s="89" t="n"/>
+      <c r="E7" s="90" t="n"/>
+      <c r="F7" s="23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bill No. : </t>
+        </is>
+      </c>
+      <c r="G7" s="24" t="n"/>
+      <c r="H7" s="25" t="n"/>
+    </row>
+    <row r="8" ht="14.4" customHeight="1">
+      <c r="A8" s="51" t="inlineStr">
+        <is>
+          <t>3rd Floor, Unit No. 302, A wing,</t>
+        </is>
+      </c>
+      <c r="B8" s="52" t="n"/>
+      <c r="C8" s="52" t="n"/>
+      <c r="D8" s="52" t="n"/>
+      <c r="E8" s="53" t="n"/>
+      <c r="F8" s="91" t="inlineStr">
+        <is>
+          <t>PAN: AAECJ2353C</t>
+        </is>
+      </c>
+      <c r="H8" s="17" t="n"/>
+    </row>
+    <row r="9" ht="14.4" customHeight="1">
+      <c r="A9" s="92" t="inlineStr">
+        <is>
+          <t>Natraj By Rustomjee,M V Road, WEH , Andheri East,</t>
+        </is>
+      </c>
+      <c r="E9" s="93" t="n"/>
+      <c r="F9" s="91" t="inlineStr">
+        <is>
+          <t>GST No:  27AAECJ2353C1ZX</t>
+        </is>
+      </c>
+      <c r="H9" s="17" t="n"/>
+      <c r="I9" s="4" t="n"/>
+    </row>
+    <row r="10" ht="14.4" customHeight="1">
+      <c r="A10" s="92" t="inlineStr">
+        <is>
+          <t>Mumbai City, Maharashtra, 400069</t>
+        </is>
+      </c>
+      <c r="E10" s="93" t="n"/>
+      <c r="F10" s="91" t="inlineStr">
+        <is>
+          <t>PF No.- KDMAL1720777000</t>
+        </is>
+      </c>
+      <c r="H10" s="17" t="n"/>
+      <c r="I10" s="4" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GST NO: </t>
+        </is>
+      </c>
+      <c r="B11" s="27" t="inlineStr">
+        <is>
+          <t>:27AAACO7555K1Z1</t>
+        </is>
+      </c>
+      <c r="C11" s="27" t="n"/>
+      <c r="D11" s="27" t="n"/>
+      <c r="E11" s="28" t="n"/>
+      <c r="F11" s="91" t="inlineStr">
+        <is>
+          <t>ESIC No.- 35000427980001001</t>
+        </is>
+      </c>
+      <c r="H11" s="17" t="n"/>
+      <c r="I11" s="4" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PAN: </t>
+        </is>
+      </c>
+      <c r="B12" s="27" t="inlineStr">
+        <is>
+          <t>AAACO7555K</t>
+        </is>
+      </c>
+      <c r="C12" s="27" t="n"/>
+      <c r="D12" s="27" t="n"/>
+      <c r="E12" s="28" t="n"/>
+      <c r="F12" s="57" t="inlineStr">
+        <is>
+          <t>Bill Date:</t>
+        </is>
+      </c>
+      <c r="G12" s="58" t="inlineStr">
+        <is>
+          <t>28-02-2026</t>
+        </is>
+      </c>
+      <c r="H12" s="59" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="26" t="inlineStr">
+        <is>
+          <t>Kind Attn:</t>
+        </is>
+      </c>
+      <c r="B13" s="27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mr. Dinesh Maheswari</t>
+        </is>
+      </c>
+      <c r="C13" s="27" t="n"/>
+      <c r="D13" s="27" t="n"/>
+      <c r="E13" s="28" t="n"/>
+      <c r="F13" s="57" t="inlineStr">
+        <is>
+          <t>Due Date:</t>
+        </is>
+      </c>
+      <c r="G13" s="58" t="inlineStr">
+        <is>
+          <t>03-03-2026</t>
+        </is>
+      </c>
+      <c r="H13" s="59" t="n"/>
+    </row>
+    <row r="14" ht="14.4" customHeight="1">
+      <c r="A14" s="92" t="n"/>
+      <c r="E14" s="93" t="n"/>
+      <c r="F14" s="94" t="n"/>
+      <c r="H14" s="17" t="n"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" thickBot="1">
+      <c r="A15" s="92" t="n"/>
+      <c r="E15" s="93" t="n"/>
+      <c r="F15" s="94" t="inlineStr">
+        <is>
+          <t>Place of Service: Mumbai</t>
+        </is>
+      </c>
+      <c r="H15" s="17" t="n"/>
+      <c r="I15" s="5" t="n"/>
+      <c r="K15" s="95" t="n"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" thickBot="1">
+      <c r="A16" s="77" t="n"/>
+      <c r="B16" s="7" t="n"/>
+      <c r="C16" s="7" t="n"/>
+      <c r="D16" s="7" t="n"/>
+      <c r="E16" s="8" t="n"/>
+      <c r="F16" s="77" t="n"/>
+      <c r="G16" s="10" t="n"/>
+      <c r="H16" s="8" t="n"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c r="A17" s="96" t="inlineStr">
+        <is>
+          <t>Contract staffing services for Assistance in Various Department Period: 01 Feb 2026 to 28 Feb 2026</t>
+        </is>
+      </c>
+      <c r="B17" s="97" t="n"/>
+      <c r="C17" s="97" t="n"/>
+      <c r="D17" s="97" t="n"/>
+      <c r="E17" s="97" t="n"/>
+      <c r="F17" s="97" t="n"/>
+      <c r="G17" s="98" t="n"/>
+      <c r="H17" s="99" t="n">
+        <v>168550</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="12" t="n"/>
+      <c r="G18" s="17" t="n"/>
+      <c r="H18" s="100" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="12" t="n"/>
+      <c r="G19" s="17" t="n"/>
+      <c r="H19" s="100" t="n"/>
+    </row>
+    <row r="20" ht="15" customHeight="1" thickBot="1">
+      <c r="A20" s="18" t="n"/>
+      <c r="B20" s="21" t="n"/>
+      <c r="C20" s="21" t="n"/>
+      <c r="D20" s="21" t="n"/>
+      <c r="E20" s="21" t="n"/>
+      <c r="F20" s="21" t="n"/>
+      <c r="G20" s="22" t="n"/>
+      <c r="H20" s="101" t="n"/>
+    </row>
+    <row r="21" ht="18" customHeight="1" thickBot="1">
+      <c r="A21" s="75" t="inlineStr">
+        <is>
+          <t>Add : SGST @ 9%</t>
+        </is>
+      </c>
+      <c r="B21" s="7" t="n"/>
+      <c r="C21" s="7" t="n"/>
+      <c r="D21" s="7" t="n"/>
+      <c r="E21" s="7" t="n"/>
+      <c r="F21" s="7" t="n"/>
+      <c r="G21" s="8" t="n"/>
+      <c r="H21" s="99" t="n">
+        <v>15170</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A22" s="75" t="inlineStr">
+        <is>
+          <t>Add : CGST @ 9%</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="n"/>
+      <c r="C22" s="7" t="n"/>
+      <c r="D22" s="7" t="n"/>
+      <c r="E22" s="7" t="n"/>
+      <c r="F22" s="7" t="n"/>
+      <c r="G22" s="8" t="n"/>
+      <c r="H22" s="99" t="n">
+        <v>15170</v>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" s="12" t="n"/>
+      <c r="H23" s="99" t="n">
+        <v>198889</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c r="A24" s="13" t="inlineStr">
+        <is>
+          <t>Rupees:</t>
+        </is>
+      </c>
+      <c r="B24" s="14" t="inlineStr">
+        <is>
+          <t>One Lakh, Ninety-Eight Thousand, Eight Hundred And Eighty-Nine Only</t>
+        </is>
+      </c>
+      <c r="H24" s="100" t="n"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A25" s="15" t="n"/>
+      <c r="B25" s="16" t="n"/>
+      <c r="C25" s="16" t="n"/>
+      <c r="D25" s="16" t="n"/>
+      <c r="E25" s="16" t="n"/>
+      <c r="F25" s="16" t="n"/>
+      <c r="G25" s="16" t="n"/>
+      <c r="H25" s="101" t="n"/>
+    </row>
+    <row r="26" ht="15" customHeight="1" thickTop="1">
+      <c r="A26" s="12" t="n"/>
+      <c r="H26" s="17" t="n"/>
+    </row>
+    <row r="27" ht="14.4" customHeight="1">
+      <c r="A27" s="12" t="n"/>
+      <c r="H27" s="17" t="n"/>
+    </row>
+    <row r="28" ht="14.4" customHeight="1">
+      <c r="A28" s="12" t="n"/>
+      <c r="H28" s="17" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="12" t="n"/>
+      <c r="H29" s="17" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="12" t="n"/>
+      <c r="H30" s="17" t="n"/>
+    </row>
+    <row r="31" ht="15" customHeight="1" thickBot="1">
+      <c r="A31" s="12" t="n"/>
+      <c r="H31" s="17" t="n"/>
+    </row>
+    <row r="32" ht="15" customHeight="1" thickBot="1">
+      <c r="A32" s="102" t="inlineStr">
+        <is>
+          <t>Bank Details:</t>
+        </is>
+      </c>
+      <c r="B32" s="7" t="n"/>
+      <c r="C32" s="8" t="n"/>
+      <c r="H32" s="17" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="12" t="inlineStr">
+        <is>
+          <t>Name:</t>
+        </is>
+      </c>
+      <c r="B33" s="80" t="inlineStr">
+        <is>
+          <t>Jobuss Resources Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="C33" s="17" t="n"/>
+      <c r="H33" s="17" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="12" t="inlineStr">
+        <is>
+          <t>Bank Name:</t>
+        </is>
+      </c>
+      <c r="B34" s="80" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="C34" s="17" t="n"/>
+      <c r="H34" s="17" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="12" t="inlineStr">
+        <is>
+          <t>A/c No.:</t>
+        </is>
+      </c>
+      <c r="B35" s="103" t="inlineStr">
+        <is>
+          <t>120905000960</t>
+        </is>
+      </c>
+      <c r="C35" s="17" t="n"/>
+      <c r="H35" s="17" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="12" t="inlineStr">
+        <is>
+          <t>IFSC Code:</t>
+        </is>
+      </c>
+      <c r="B36" s="80" t="inlineStr">
+        <is>
+          <t>ICIC0001209</t>
+        </is>
+      </c>
+      <c r="C36" s="17" t="n"/>
+      <c r="H36" s="17" t="n"/>
+    </row>
+    <row r="37" ht="15" customHeight="1" thickBot="1">
+      <c r="A37" s="18" t="inlineStr">
+        <is>
+          <t>MICR No:</t>
+        </is>
+      </c>
+      <c r="B37" s="104" t="inlineStr">
+        <is>
+          <t>400229195</t>
+        </is>
+      </c>
+      <c r="C37" s="22" t="n"/>
+      <c r="H37" s="17" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="12" t="n"/>
+      <c r="H38" s="17" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="12" t="n"/>
+      <c r="H39" s="17" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="12" t="n"/>
+      <c r="H40" s="17" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="12" t="n"/>
+      <c r="H41" s="17" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="12" t="n"/>
+      <c r="H42" s="17" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="12" t="n"/>
+      <c r="H43" s="17" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="12" t="n"/>
+      <c r="H44" s="17" t="n"/>
+    </row>
+    <row r="45" ht="15.5" customHeight="1">
+      <c r="A45" s="12" t="n"/>
+      <c r="G45" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    For Jobuss Resources Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="H45" s="17" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="12" t="n"/>
+      <c r="H46" s="17" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="12" t="n"/>
+      <c r="H47" s="17" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="12" t="n"/>
+      <c r="H48" s="17" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="12" t="n"/>
+      <c r="H49" s="17" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="12" t="n"/>
+      <c r="H50" s="17" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="12" t="n"/>
+      <c r="H51" s="17" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="12" t="n"/>
+      <c r="H52" s="17" t="n"/>
+    </row>
+    <row r="53" ht="15.5" customHeight="1">
+      <c r="A53" s="12" t="n"/>
+      <c r="G53" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Authorized Signatory</t>
+        </is>
+      </c>
+      <c r="H53" s="17" t="n"/>
+    </row>
+    <row r="54" ht="15.5" customHeight="1">
+      <c r="A54" s="12" t="n"/>
+      <c r="G54" s="14" t="n"/>
+      <c r="H54" s="17" t="n"/>
+    </row>
+    <row r="55" ht="15.5" customHeight="1">
+      <c r="A55" s="12" t="n"/>
+      <c r="G55" s="14" t="n"/>
+      <c r="H55" s="17" t="n"/>
+    </row>
+    <row r="56" ht="15.5" customHeight="1">
+      <c r="A56" s="12" t="n"/>
+      <c r="G56" s="14" t="n"/>
+      <c r="H56" s="17" t="n"/>
+    </row>
+    <row r="57" ht="15.5" customHeight="1">
+      <c r="A57" s="12" t="n"/>
+      <c r="G57" s="14" t="n"/>
+      <c r="H57" s="17" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="12" t="n"/>
+      <c r="H58" s="17" t="n"/>
+    </row>
+    <row r="59" ht="15.5" customHeight="1">
+      <c r="A59" s="19" t="inlineStr">
+        <is>
+          <t>●   Early Remittance is Solicited.</t>
+        </is>
+      </c>
+      <c r="B59" s="20" t="n"/>
+      <c r="H59" s="17" t="n"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ●   GST No  27AAECJ2353C1ZX &amp; SAC Code 998224 Category: Employment Services including personnel search/referral service &amp; Labour Supply Service. Sub Category: Contract Staffing Services.</t>
+        </is>
+      </c>
+      <c r="H60" s="17" t="n"/>
+    </row>
+    <row r="61" ht="22.5" customHeight="1">
+      <c r="A61" s="12" t="n"/>
+      <c r="H61" s="17" t="n"/>
+    </row>
+    <row r="62" ht="15" customHeight="1" thickBot="1">
+      <c r="A62" s="18" t="n"/>
+      <c r="B62" s="21" t="n"/>
+      <c r="C62" s="21" t="n"/>
+      <c r="D62" s="21" t="n"/>
+      <c r="E62" s="21" t="n"/>
+      <c r="F62" s="21" t="n"/>
+      <c r="G62" s="21" t="n"/>
+      <c r="H62" s="22" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A17:G20"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A60:H61"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A9:E9"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="62"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -532,613 +1902,613 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="106" t="inlineStr">
         <is>
           <t>Kind Attention Person</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="106" t="inlineStr">
         <is>
           <t>Employee Code</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="106" t="inlineStr">
         <is>
           <t>Employee Name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="106" t="inlineStr">
         <is>
           <t>Billing</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="106" t="inlineStr">
         <is>
           <t>No of days</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="106" t="inlineStr">
         <is>
           <t>Eligible Days</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="106" t="inlineStr">
         <is>
           <t>No of Saturdays</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="106" t="inlineStr">
         <is>
           <t>No of Sundays</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="106" t="inlineStr">
         <is>
           <t>No of Holidays</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="106" t="inlineStr">
         <is>
           <t>Total Present</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="106" t="inlineStr">
         <is>
           <t>Total Working Days</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="106" t="inlineStr">
         <is>
           <t>Absents this Month</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="106" t="inlineStr">
         <is>
           <t>Adjustment of Days</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="106" t="inlineStr">
         <is>
           <t>Total Payable Days</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="106" t="inlineStr">
         <is>
           <t>Total Payable Billing</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="106" t="inlineStr">
         <is>
           <t>Charges</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="106" t="inlineStr">
         <is>
           <t>Out of Pocket Exp</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="106" t="inlineStr">
         <is>
           <t>Arrears</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="106" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="106" t="inlineStr">
         <is>
           <t>Grand Total</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="106" t="inlineStr">
         <is>
           <t>Remark</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="106" t="inlineStr">
         <is>
           <t>CGST @9%</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="106" t="inlineStr">
         <is>
           <t>SGST @9%</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="106" t="inlineStr">
         <is>
           <t>IGST @18%</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="107" t="inlineStr">
         <is>
           <t>Dinesh Maheshwari</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="107" t="inlineStr">
         <is>
           <t>JB-10193</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="107" t="inlineStr">
         <is>
           <t>VIDHYASHREE NARAYANASWAMY</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="107" t="n">
         <v>28600</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="107" t="n">
         <v>28</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="107" t="n">
         <v>28</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="107" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J2" s="107" t="n">
         <v>19</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="107" t="n">
         <v>28</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="L2" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="M2" s="2" t="n">
+      <c r="M2" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="N2" s="2" t="n">
+      <c r="N2" s="107" t="n">
         <v>28</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="O2" s="107" t="n">
         <v>28600</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="107" t="n">
         <v>750</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="Q2" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="R2" s="2" t="n">
+      <c r="R2" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="S2" s="2" t="n">
+      <c r="S2" s="107" t="n">
         <v>29350</v>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="T2" s="107" t="n">
         <v>34633</v>
       </c>
-      <c r="U2" s="2" t="n">
-        <v/>
-      </c>
-      <c r="V2" s="2" t="n">
+      <c r="U2" s="107" t="n">
+        <v/>
+      </c>
+      <c r="V2" s="107" t="n">
         <v>2641.5</v>
       </c>
-      <c r="W2" s="2" t="n">
+      <c r="W2" s="107" t="n">
         <v>2641.5</v>
       </c>
-      <c r="X2" s="2" t="n">
+      <c r="X2" s="107" t="n">
         <v/>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="107" t="inlineStr">
         <is>
           <t>Dinesh Maheshwari</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="107" t="inlineStr">
         <is>
           <t>JB-10190</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="107" t="inlineStr">
         <is>
           <t>JAYSHREE SUNIL KASBE</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="107" t="n">
         <v>33600</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="107" t="n">
         <v>28</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="107" t="n">
         <v>28</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="107" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="107" t="n">
         <v>19</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="107" t="n">
         <v>28</v>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="L3" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="M3" s="2" t="n">
+      <c r="M3" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="N3" s="2" t="n">
+      <c r="N3" s="107" t="n">
         <v>28</v>
       </c>
-      <c r="O3" s="2" t="n">
+      <c r="O3" s="107" t="n">
         <v>33600</v>
       </c>
-      <c r="P3" s="2" t="n">
+      <c r="P3" s="107" t="n">
         <v>1500</v>
       </c>
-      <c r="Q3" s="2" t="n">
+      <c r="Q3" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="R3" s="2" t="n">
+      <c r="R3" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="S3" s="2" t="n">
+      <c r="S3" s="107" t="n">
         <v>35100</v>
       </c>
-      <c r="T3" s="2" t="n">
+      <c r="T3" s="107" t="n">
         <v>41418</v>
       </c>
-      <c r="U3" s="2" t="n">
-        <v/>
-      </c>
-      <c r="V3" s="2" t="n">
+      <c r="U3" s="107" t="n">
+        <v/>
+      </c>
+      <c r="V3" s="107" t="n">
         <v>3159</v>
       </c>
-      <c r="W3" s="2" t="n">
+      <c r="W3" s="107" t="n">
         <v>3159</v>
       </c>
-      <c r="X3" s="2" t="n">
+      <c r="X3" s="107" t="n">
         <v/>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="107" t="inlineStr">
         <is>
           <t>Dinesh Maheshwari</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="107" t="inlineStr">
         <is>
           <t>JB-10191</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="107" t="inlineStr">
         <is>
           <t>UPADHYAY SHIVANGI MUKESHKUMAR</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="107" t="n">
         <v>33600</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="107" t="n">
         <v>28</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="107" t="n">
         <v>28</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="107" t="n">
         <v>1</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="107" t="n">
         <v>19</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="107" t="n">
         <v>28</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="L4" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="M4" s="2" t="n">
+      <c r="M4" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="N4" s="2" t="n">
+      <c r="N4" s="107" t="n">
         <v>28</v>
       </c>
-      <c r="O4" s="2" t="n">
+      <c r="O4" s="107" t="n">
         <v>33600</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="107" t="n">
         <v>1500</v>
       </c>
-      <c r="Q4" s="2" t="n">
+      <c r="Q4" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="R4" s="2" t="n">
+      <c r="R4" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="S4" s="2" t="n">
+      <c r="S4" s="107" t="n">
         <v>35100</v>
       </c>
-      <c r="T4" s="2" t="n">
+      <c r="T4" s="107" t="n">
         <v>41418</v>
       </c>
-      <c r="U4" s="2" t="n">
-        <v/>
-      </c>
-      <c r="V4" s="2" t="n">
+      <c r="U4" s="107" t="n">
+        <v/>
+      </c>
+      <c r="V4" s="107" t="n">
         <v>3159</v>
       </c>
-      <c r="W4" s="2" t="n">
+      <c r="W4" s="107" t="n">
         <v>3159</v>
       </c>
-      <c r="X4" s="2" t="n">
+      <c r="X4" s="107" t="n">
         <v/>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="107" t="inlineStr">
         <is>
           <t>Dinesh Maheshwari</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="107" t="inlineStr">
         <is>
           <t>JB-10211</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="107" t="inlineStr">
         <is>
           <t>CYRIL ANDREW MASCARENHAS</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="107" t="n">
         <v>30000</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="107" t="n">
         <v>28</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="107" t="n">
         <v>28</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="107" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="J5" s="107" t="n">
         <v>19</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="107" t="n">
         <v>28</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="L5" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="M5" s="2" t="n">
+      <c r="M5" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="N5" s="2" t="n">
+      <c r="N5" s="107" t="n">
         <v>28</v>
       </c>
-      <c r="O5" s="2" t="n">
+      <c r="O5" s="107" t="n">
         <v>30000</v>
       </c>
-      <c r="P5" s="2" t="n">
+      <c r="P5" s="107" t="n">
         <v>750</v>
       </c>
-      <c r="Q5" s="2" t="n">
+      <c r="Q5" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="R5" s="2" t="n">
+      <c r="R5" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="S5" s="2" t="n">
+      <c r="S5" s="107" t="n">
         <v>30750</v>
       </c>
-      <c r="T5" s="2" t="n">
+      <c r="T5" s="107" t="n">
         <v>36285</v>
       </c>
-      <c r="U5" s="2" t="n">
-        <v/>
-      </c>
-      <c r="V5" s="2" t="n">
+      <c r="U5" s="107" t="n">
+        <v/>
+      </c>
+      <c r="V5" s="107" t="n">
         <v>2767.5</v>
       </c>
-      <c r="W5" s="2" t="n">
+      <c r="W5" s="107" t="n">
         <v>2767.5</v>
       </c>
-      <c r="X5" s="2" t="n">
+      <c r="X5" s="107" t="n">
         <v/>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="107" t="inlineStr">
         <is>
           <t>Dinesh Maheshwari</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="107" t="inlineStr">
         <is>
           <t>JB-10229</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="107" t="inlineStr">
         <is>
           <t>SACHIN RAJAN GUPTA</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="107" t="n">
         <v>37500</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="107" t="n">
         <v>28</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="107" t="n">
         <v>28</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="107" t="n">
         <v>1</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="J6" s="107" t="n">
         <v>19</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="107" t="n">
         <v>28</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="L6" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="M6" s="2" t="n">
+      <c r="M6" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="2" t="n">
+      <c r="N6" s="107" t="n">
         <v>28</v>
       </c>
-      <c r="O6" s="2" t="n">
+      <c r="O6" s="107" t="n">
         <v>37500</v>
       </c>
-      <c r="P6" s="2" t="n">
+      <c r="P6" s="107" t="n">
         <v>750</v>
       </c>
-      <c r="Q6" s="2" t="n">
+      <c r="Q6" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="R6" s="2" t="n">
+      <c r="R6" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="S6" s="2" t="n">
+      <c r="S6" s="107" t="n">
         <v>38250</v>
       </c>
-      <c r="T6" s="2" t="n">
+      <c r="T6" s="107" t="n">
         <v>45135</v>
       </c>
-      <c r="U6" s="2" t="n">
-        <v/>
-      </c>
-      <c r="V6" s="2" t="n">
+      <c r="U6" s="107" t="n">
+        <v/>
+      </c>
+      <c r="V6" s="107" t="n">
         <v>3442.5</v>
       </c>
-      <c r="W6" s="2" t="n">
+      <c r="W6" s="107" t="n">
         <v>3442.5</v>
       </c>
-      <c r="X6" s="2" t="n">
+      <c r="X6" s="107" t="n">
         <v/>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="108" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3">
+      <c r="B7" s="108" t="n"/>
+      <c r="C7" s="108" t="n"/>
+      <c r="D7" s="108">
         <f>ROUND(SUM(D2:D6), 0)</f>
         <v/>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="108">
         <f>ROUND(SUM(E2:E6), 0)</f>
         <v/>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="108">
         <f>ROUND(SUM(F2:F6), 0)</f>
         <v/>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="108">
         <f>ROUND(SUM(G2:G6), 0)</f>
         <v/>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="108">
         <f>ROUND(SUM(H2:H6), 0)</f>
         <v/>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="108">
         <f>ROUND(SUM(I2:I6), 0)</f>
         <v/>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="108">
         <f>ROUND(SUM(J2:J6), 0)</f>
         <v/>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="108">
         <f>ROUND(SUM(K2:K6), 0)</f>
         <v/>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="108">
         <f>ROUND(SUM(L2:L6), 0)</f>
         <v/>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="108">
         <f>ROUND(SUM(M2:M6), 0)</f>
         <v/>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="108">
         <f>ROUND(SUM(N2:N6), 0)</f>
         <v/>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="108">
         <f>ROUND(SUM(O2:O6), 0)</f>
         <v/>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="108">
         <f>ROUND(SUM(P2:P6), 0)</f>
         <v/>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="108">
         <f>ROUND(SUM(Q2:Q6), 0)</f>
         <v/>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="108">
         <f>ROUND(SUM(R2:R6), 0)</f>
         <v/>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="108">
         <f>ROUND(SUM(S2:S6), 0)</f>
         <v/>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="108">
         <f>ROUND(SUM(S7), 0)</f>
         <v/>
       </c>
-      <c r="U7" s="3" t="n"/>
-      <c r="V7" s="3">
+      <c r="U7" s="108" t="n"/>
+      <c r="V7" s="108">
         <f>CEILING(SUM(V2:V6), 1)</f>
         <v/>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="108">
         <f>CEILING(SUM(W2:W6), 1)</f>
         <v/>
       </c>
-      <c r="X7" s="3">
+      <c r="X7" s="108">
         <f>ROUND(SUM(X2:X6), 0)</f>
         <v/>
       </c>

--- a/Bills/Dinesh_Maheshwari_Jobuss.xlsx
+++ b/Bills/Dinesh_Maheshwari_Jobuss.xlsx
@@ -439,7 +439,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -706,7 +706,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="4" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1565,7 +1569,7 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" s="12" t="n"/>
       <c r="H23" s="99" t="n">
-        <v>198889</v>
+        <v>198890</v>
       </c>
     </row>
     <row r="24" ht="16.5" customHeight="1">
@@ -1576,7 +1580,7 @@
       </c>
       <c r="B24" s="14" t="inlineStr">
         <is>
-          <t>One Lakh, Ninety-Eight Thousand, Eight Hundred And Eighty-Nine Only</t>
+          <t>One Lakh, Ninety-Eight Thousand, Eight Hundred And Ninety Only</t>
         </is>
       </c>
       <c r="H24" s="100" t="n"/>
@@ -1867,7 +1871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1898,7 +1902,6 @@
     <col width="18" customWidth="1" min="21" max="21"/>
     <col width="18" customWidth="1" min="22" max="22"/>
     <col width="18" customWidth="1" min="23" max="23"/>
-    <col width="18" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -1999,27 +2002,22 @@
       </c>
       <c r="T1" s="106" t="inlineStr">
         <is>
+          <t>CGST @9%</t>
+        </is>
+      </c>
+      <c r="U1" s="106" t="inlineStr">
+        <is>
+          <t>SGST @9%</t>
+        </is>
+      </c>
+      <c r="V1" s="106" t="inlineStr">
+        <is>
           <t>Grand Total</t>
         </is>
       </c>
-      <c r="U1" s="106" t="inlineStr">
+      <c r="W1" s="106" t="inlineStr">
         <is>
           <t>Remark</t>
-        </is>
-      </c>
-      <c r="V1" s="106" t="inlineStr">
-        <is>
-          <t>CGST @9%</t>
-        </is>
-      </c>
-      <c r="W1" s="106" t="inlineStr">
-        <is>
-          <t>SGST @9%</t>
-        </is>
-      </c>
-      <c r="X1" s="106" t="inlineStr">
-        <is>
-          <t>IGST @18%</t>
         </is>
       </c>
     </row>
@@ -2039,67 +2037,64 @@
           <t>VIDHYASHREE NARAYANASWAMY</t>
         </is>
       </c>
-      <c r="D2" s="107" t="n">
+      <c r="D2" s="108" t="n">
         <v>28600</v>
       </c>
-      <c r="E2" s="107" t="n">
+      <c r="E2" s="108" t="n">
         <v>28</v>
       </c>
-      <c r="F2" s="107" t="n">
+      <c r="F2" s="108" t="n">
         <v>28</v>
       </c>
-      <c r="G2" s="107" t="n">
+      <c r="G2" s="108" t="n">
         <v>4</v>
       </c>
-      <c r="H2" s="107" t="n">
+      <c r="H2" s="108" t="n">
         <v>4</v>
       </c>
-      <c r="I2" s="107" t="n">
+      <c r="I2" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="107" t="n">
+      <c r="J2" s="108" t="n">
         <v>19</v>
       </c>
-      <c r="K2" s="107" t="n">
+      <c r="K2" s="108" t="n">
         <v>28</v>
       </c>
-      <c r="L2" s="107" t="n">
+      <c r="L2" s="108" t="n">
         <v>0</v>
       </c>
-      <c r="M2" s="107" t="n">
+      <c r="M2" s="108" t="n">
         <v>0</v>
       </c>
-      <c r="N2" s="107" t="n">
+      <c r="N2" s="108" t="n">
         <v>28</v>
       </c>
-      <c r="O2" s="107" t="n">
+      <c r="O2" s="108" t="n">
         <v>28600</v>
       </c>
-      <c r="P2" s="107" t="n">
+      <c r="P2" s="108" t="n">
         <v>750</v>
       </c>
-      <c r="Q2" s="107" t="n">
+      <c r="Q2" s="108" t="n">
         <v>0</v>
       </c>
-      <c r="R2" s="107" t="n">
+      <c r="R2" s="108" t="n">
         <v>0</v>
       </c>
-      <c r="S2" s="107" t="n">
+      <c r="S2" s="108" t="n">
         <v>29350</v>
       </c>
-      <c r="T2" s="107" t="n">
+      <c r="T2" s="108" t="n">
+        <v>2641.5</v>
+      </c>
+      <c r="U2" s="108" t="n">
+        <v>2641.5</v>
+      </c>
+      <c r="V2" s="108" t="n">
         <v>34633</v>
       </c>
-      <c r="U2" s="107" t="n">
-        <v/>
-      </c>
-      <c r="V2" s="107" t="n">
-        <v>2641.5</v>
-      </c>
       <c r="W2" s="107" t="n">
-        <v>2641.5</v>
-      </c>
-      <c r="X2" s="107" t="n">
         <v/>
       </c>
     </row>
@@ -2119,67 +2114,64 @@
           <t>JAYSHREE SUNIL KASBE</t>
         </is>
       </c>
-      <c r="D3" s="107" t="n">
+      <c r="D3" s="108" t="n">
         <v>33600</v>
       </c>
-      <c r="E3" s="107" t="n">
+      <c r="E3" s="108" t="n">
         <v>28</v>
       </c>
-      <c r="F3" s="107" t="n">
+      <c r="F3" s="108" t="n">
         <v>28</v>
       </c>
-      <c r="G3" s="107" t="n">
+      <c r="G3" s="108" t="n">
         <v>4</v>
       </c>
-      <c r="H3" s="107" t="n">
+      <c r="H3" s="108" t="n">
         <v>4</v>
       </c>
-      <c r="I3" s="107" t="n">
+      <c r="I3" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="107" t="n">
+      <c r="J3" s="108" t="n">
         <v>19</v>
       </c>
-      <c r="K3" s="107" t="n">
+      <c r="K3" s="108" t="n">
         <v>28</v>
       </c>
-      <c r="L3" s="107" t="n">
+      <c r="L3" s="108" t="n">
         <v>0</v>
       </c>
-      <c r="M3" s="107" t="n">
+      <c r="M3" s="108" t="n">
         <v>0</v>
       </c>
-      <c r="N3" s="107" t="n">
+      <c r="N3" s="108" t="n">
         <v>28</v>
       </c>
-      <c r="O3" s="107" t="n">
+      <c r="O3" s="108" t="n">
         <v>33600</v>
       </c>
-      <c r="P3" s="107" t="n">
+      <c r="P3" s="108" t="n">
         <v>1500</v>
       </c>
-      <c r="Q3" s="107" t="n">
+      <c r="Q3" s="108" t="n">
         <v>0</v>
       </c>
-      <c r="R3" s="107" t="n">
+      <c r="R3" s="108" t="n">
         <v>0</v>
       </c>
-      <c r="S3" s="107" t="n">
+      <c r="S3" s="108" t="n">
         <v>35100</v>
       </c>
-      <c r="T3" s="107" t="n">
+      <c r="T3" s="108" t="n">
+        <v>3159</v>
+      </c>
+      <c r="U3" s="108" t="n">
+        <v>3159</v>
+      </c>
+      <c r="V3" s="108" t="n">
         <v>41418</v>
       </c>
-      <c r="U3" s="107" t="n">
-        <v/>
-      </c>
-      <c r="V3" s="107" t="n">
-        <v>3159</v>
-      </c>
       <c r="W3" s="107" t="n">
-        <v>3159</v>
-      </c>
-      <c r="X3" s="107" t="n">
         <v/>
       </c>
     </row>
@@ -2199,67 +2191,64 @@
           <t>UPADHYAY SHIVANGI MUKESHKUMAR</t>
         </is>
       </c>
-      <c r="D4" s="107" t="n">
+      <c r="D4" s="108" t="n">
         <v>33600</v>
       </c>
-      <c r="E4" s="107" t="n">
+      <c r="E4" s="108" t="n">
         <v>28</v>
       </c>
-      <c r="F4" s="107" t="n">
+      <c r="F4" s="108" t="n">
         <v>28</v>
       </c>
-      <c r="G4" s="107" t="n">
+      <c r="G4" s="108" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="107" t="n">
+      <c r="H4" s="108" t="n">
         <v>4</v>
       </c>
-      <c r="I4" s="107" t="n">
+      <c r="I4" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="J4" s="107" t="n">
+      <c r="J4" s="108" t="n">
         <v>19</v>
       </c>
-      <c r="K4" s="107" t="n">
+      <c r="K4" s="108" t="n">
         <v>28</v>
       </c>
-      <c r="L4" s="107" t="n">
+      <c r="L4" s="108" t="n">
         <v>0</v>
       </c>
-      <c r="M4" s="107" t="n">
+      <c r="M4" s="108" t="n">
         <v>0</v>
       </c>
-      <c r="N4" s="107" t="n">
+      <c r="N4" s="108" t="n">
         <v>28</v>
       </c>
-      <c r="O4" s="107" t="n">
+      <c r="O4" s="108" t="n">
         <v>33600</v>
       </c>
-      <c r="P4" s="107" t="n">
+      <c r="P4" s="108" t="n">
         <v>1500</v>
       </c>
-      <c r="Q4" s="107" t="n">
+      <c r="Q4" s="108" t="n">
         <v>0</v>
       </c>
-      <c r="R4" s="107" t="n">
+      <c r="R4" s="108" t="n">
         <v>0</v>
       </c>
-      <c r="S4" s="107" t="n">
+      <c r="S4" s="108" t="n">
         <v>35100</v>
       </c>
-      <c r="T4" s="107" t="n">
+      <c r="T4" s="108" t="n">
+        <v>3159</v>
+      </c>
+      <c r="U4" s="108" t="n">
+        <v>3159</v>
+      </c>
+      <c r="V4" s="108" t="n">
         <v>41418</v>
       </c>
-      <c r="U4" s="107" t="n">
-        <v/>
-      </c>
-      <c r="V4" s="107" t="n">
-        <v>3159</v>
-      </c>
       <c r="W4" s="107" t="n">
-        <v>3159</v>
-      </c>
-      <c r="X4" s="107" t="n">
         <v/>
       </c>
     </row>
@@ -2279,67 +2268,64 @@
           <t>CYRIL ANDREW MASCARENHAS</t>
         </is>
       </c>
-      <c r="D5" s="107" t="n">
+      <c r="D5" s="108" t="n">
         <v>30000</v>
       </c>
-      <c r="E5" s="107" t="n">
+      <c r="E5" s="108" t="n">
         <v>28</v>
       </c>
-      <c r="F5" s="107" t="n">
+      <c r="F5" s="108" t="n">
         <v>28</v>
       </c>
-      <c r="G5" s="107" t="n">
+      <c r="G5" s="108" t="n">
         <v>4</v>
       </c>
-      <c r="H5" s="107" t="n">
+      <c r="H5" s="108" t="n">
         <v>4</v>
       </c>
-      <c r="I5" s="107" t="n">
+      <c r="I5" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="107" t="n">
+      <c r="J5" s="108" t="n">
         <v>19</v>
       </c>
-      <c r="K5" s="107" t="n">
+      <c r="K5" s="108" t="n">
         <v>28</v>
       </c>
-      <c r="L5" s="107" t="n">
+      <c r="L5" s="108" t="n">
         <v>0</v>
       </c>
-      <c r="M5" s="107" t="n">
+      <c r="M5" s="108" t="n">
         <v>0</v>
       </c>
-      <c r="N5" s="107" t="n">
+      <c r="N5" s="108" t="n">
         <v>28</v>
       </c>
-      <c r="O5" s="107" t="n">
+      <c r="O5" s="108" t="n">
         <v>30000</v>
       </c>
-      <c r="P5" s="107" t="n">
+      <c r="P5" s="108" t="n">
         <v>750</v>
       </c>
-      <c r="Q5" s="107" t="n">
+      <c r="Q5" s="108" t="n">
         <v>0</v>
       </c>
-      <c r="R5" s="107" t="n">
+      <c r="R5" s="108" t="n">
         <v>0</v>
       </c>
-      <c r="S5" s="107" t="n">
+      <c r="S5" s="108" t="n">
         <v>30750</v>
       </c>
-      <c r="T5" s="107" t="n">
+      <c r="T5" s="108" t="n">
+        <v>2767.5</v>
+      </c>
+      <c r="U5" s="108" t="n">
+        <v>2767.5</v>
+      </c>
+      <c r="V5" s="108" t="n">
         <v>36285</v>
       </c>
-      <c r="U5" s="107" t="n">
-        <v/>
-      </c>
-      <c r="V5" s="107" t="n">
-        <v>2767.5</v>
-      </c>
       <c r="W5" s="107" t="n">
-        <v>2767.5</v>
-      </c>
-      <c r="X5" s="107" t="n">
         <v/>
       </c>
     </row>
@@ -2359,159 +2345,152 @@
           <t>SACHIN RAJAN GUPTA</t>
         </is>
       </c>
-      <c r="D6" s="107" t="n">
+      <c r="D6" s="108" t="n">
         <v>37500</v>
       </c>
-      <c r="E6" s="107" t="n">
+      <c r="E6" s="108" t="n">
         <v>28</v>
       </c>
-      <c r="F6" s="107" t="n">
+      <c r="F6" s="108" t="n">
         <v>28</v>
       </c>
-      <c r="G6" s="107" t="n">
+      <c r="G6" s="108" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="107" t="n">
+      <c r="H6" s="108" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="107" t="n">
+      <c r="I6" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="J6" s="107" t="n">
+      <c r="J6" s="108" t="n">
         <v>19</v>
       </c>
-      <c r="K6" s="107" t="n">
+      <c r="K6" s="108" t="n">
         <v>28</v>
       </c>
-      <c r="L6" s="107" t="n">
+      <c r="L6" s="108" t="n">
         <v>0</v>
       </c>
-      <c r="M6" s="107" t="n">
+      <c r="M6" s="108" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="107" t="n">
+      <c r="N6" s="108" t="n">
         <v>28</v>
       </c>
-      <c r="O6" s="107" t="n">
+      <c r="O6" s="108" t="n">
         <v>37500</v>
       </c>
-      <c r="P6" s="107" t="n">
+      <c r="P6" s="108" t="n">
         <v>750</v>
       </c>
-      <c r="Q6" s="107" t="n">
+      <c r="Q6" s="108" t="n">
         <v>0</v>
       </c>
-      <c r="R6" s="107" t="n">
+      <c r="R6" s="108" t="n">
         <v>0</v>
       </c>
-      <c r="S6" s="107" t="n">
+      <c r="S6" s="108" t="n">
         <v>38250</v>
       </c>
-      <c r="T6" s="107" t="n">
+      <c r="T6" s="108" t="n">
+        <v>3442.5</v>
+      </c>
+      <c r="U6" s="108" t="n">
+        <v>3442.5</v>
+      </c>
+      <c r="V6" s="108" t="n">
         <v>45135</v>
       </c>
-      <c r="U6" s="107" t="n">
+      <c r="W6" s="107" t="n">
         <v/>
       </c>
-      <c r="V6" s="107" t="n">
-        <v>3442.5</v>
-      </c>
-      <c r="W6" s="107" t="n">
-        <v>3442.5</v>
-      </c>
-      <c r="X6" s="107" t="n">
-        <v/>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" s="108" t="inlineStr">
+      <c r="A7" s="109" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B7" s="108" t="n"/>
-      <c r="C7" s="108" t="n"/>
-      <c r="D7" s="108">
+      <c r="B7" s="109" t="n"/>
+      <c r="C7" s="109" t="n"/>
+      <c r="D7" s="110">
         <f>ROUND(SUM(D2:D6), 0)</f>
         <v/>
       </c>
-      <c r="E7" s="108">
+      <c r="E7" s="110">
         <f>ROUND(SUM(E2:E6), 0)</f>
         <v/>
       </c>
-      <c r="F7" s="108">
+      <c r="F7" s="110">
         <f>ROUND(SUM(F2:F6), 0)</f>
         <v/>
       </c>
-      <c r="G7" s="108">
+      <c r="G7" s="110">
         <f>ROUND(SUM(G2:G6), 0)</f>
         <v/>
       </c>
-      <c r="H7" s="108">
+      <c r="H7" s="110">
         <f>ROUND(SUM(H2:H6), 0)</f>
         <v/>
       </c>
-      <c r="I7" s="108">
+      <c r="I7" s="110">
         <f>ROUND(SUM(I2:I6), 0)</f>
         <v/>
       </c>
-      <c r="J7" s="108">
+      <c r="J7" s="110">
         <f>ROUND(SUM(J2:J6), 0)</f>
         <v/>
       </c>
-      <c r="K7" s="108">
+      <c r="K7" s="110">
         <f>ROUND(SUM(K2:K6), 0)</f>
         <v/>
       </c>
-      <c r="L7" s="108">
+      <c r="L7" s="110">
         <f>ROUND(SUM(L2:L6), 0)</f>
         <v/>
       </c>
-      <c r="M7" s="108">
+      <c r="M7" s="110">
         <f>ROUND(SUM(M2:M6), 0)</f>
         <v/>
       </c>
-      <c r="N7" s="108">
+      <c r="N7" s="110">
         <f>ROUND(SUM(N2:N6), 0)</f>
         <v/>
       </c>
-      <c r="O7" s="108">
+      <c r="O7" s="110">
         <f>ROUND(SUM(O2:O6), 0)</f>
         <v/>
       </c>
-      <c r="P7" s="108">
+      <c r="P7" s="110">
         <f>ROUND(SUM(P2:P6), 0)</f>
         <v/>
       </c>
-      <c r="Q7" s="108">
+      <c r="Q7" s="110">
         <f>ROUND(SUM(Q2:Q6), 0)</f>
         <v/>
       </c>
-      <c r="R7" s="108">
+      <c r="R7" s="110">
         <f>ROUND(SUM(R2:R6), 0)</f>
         <v/>
       </c>
-      <c r="S7" s="108">
+      <c r="S7" s="110">
         <f>ROUND(SUM(S2:S6), 0)</f>
         <v/>
       </c>
-      <c r="T7" s="108">
-        <f>ROUND(SUM(S7), 0)</f>
+      <c r="T7" s="110">
+        <f>CEILING(SUM(T2:T6), 1)</f>
         <v/>
       </c>
-      <c r="U7" s="108" t="n"/>
-      <c r="V7" s="108">
-        <f>CEILING(SUM(V2:V6), 1)</f>
+      <c r="U7" s="110">
+        <f>CEILING(SUM(U2:U6), 1)</f>
         <v/>
       </c>
-      <c r="W7" s="108">
-        <f>CEILING(SUM(W2:W6), 1)</f>
+      <c r="V7" s="110">
+        <f>ROUND(SUM(S7,T7,U7), 0)</f>
         <v/>
       </c>
-      <c r="X7" s="108">
-        <f>ROUND(SUM(X2:X6), 0)</f>
-        <v/>
-      </c>
+      <c r="W7" s="109" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
